--- a/resultats_ml.xlsx
+++ b/resultats_ml.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudlasalle-my.sharepoint.com/personal/hamilton_araujo_unilasalle_fr/Documents/Bureau/maths_partage/app_maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{8B602A96-83DE-4DC1-BCB0-95BF3B3CC0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1A6F4D3-1F39-4808-8344-431575D30F18}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{8B602A96-83DE-4DC1-BCB0-95BF3B3CC0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF9CCE3-C5F2-CF47-AE4A-6ED91B55917B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{7ABD5B88-4909-4BA9-B4A1-2B2F664063C8}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="8" xr2:uid="{7ABD5B88-4909-4BA9-B4A1-2B2F664063C8}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_ML_2310" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ml_spé" sheetId="7" r:id="rId6"/>
     <sheet name="t6_ML_0212" sheetId="8" r:id="rId7"/>
     <sheet name="t7_ML_0912" sheetId="9" r:id="rId8"/>
+    <sheet name="t8_ML_1612" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">t1_ML_2310!$A$1:$N$1</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="509">
   <si>
     <t>Nom de famille</t>
   </si>
@@ -1558,6 +1559,24 @@
   </si>
   <si>
     <t>11 min 42 s</t>
+  </si>
+  <si>
+    <t>13 min 37 s</t>
+  </si>
+  <si>
+    <t>9 min 23 s</t>
+  </si>
+  <si>
+    <t>34 min 42 s</t>
+  </si>
+  <si>
+    <t>4 min 44 s</t>
+  </si>
+  <si>
+    <t>22 min 28 s</t>
+  </si>
+  <si>
+    <t>3 min 4 s</t>
   </si>
 </sst>
 </file>
@@ -1576,6 +1595,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1599,11 +1619,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1948,14 +1969,14 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2044,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2089,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2134,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2179,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2224,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2269,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2314,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2359,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2404,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -2449,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2494,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2539,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2584,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2629,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2674,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -2719,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -2764,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -2809,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -2854,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2899,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -2944,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -2989,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -3034,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -3079,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3124,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -3169,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -3214,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -3259,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -3304,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -3349,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -3394,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -3439,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3484,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -3529,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -3574,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -3619,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -3664,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -3709,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -3754,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -3799,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -3844,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -3889,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -3934,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -3979,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -4024,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -4069,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -4114,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -4159,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>154</v>
       </c>
@@ -4204,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -4249,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -4294,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -4339,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -4384,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -4429,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -4474,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -4519,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>174</v>
       </c>
@@ -4564,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>174</v>
       </c>
@@ -4609,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -4654,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -4699,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>185</v>
       </c>
@@ -4744,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>188</v>
       </c>
@@ -4789,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -4834,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -4879,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -4924,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>198</v>
       </c>
@@ -4969,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -5014,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -5059,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>205</v>
       </c>
@@ -5104,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>208</v>
       </c>
@@ -5149,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>211</v>
       </c>
@@ -5194,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -5239,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>217</v>
       </c>
@@ -5284,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>220</v>
       </c>
@@ -5329,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>223</v>
       </c>
@@ -5374,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>226</v>
       </c>
@@ -5419,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>229</v>
       </c>
@@ -5464,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>231</v>
       </c>
@@ -5509,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>233</v>
       </c>
@@ -5554,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>236</v>
       </c>
@@ -5599,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>239</v>
       </c>
@@ -5644,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>242</v>
       </c>
@@ -5689,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>244</v>
       </c>
@@ -5734,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -5779,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5824,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -5869,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -5914,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>254</v>
       </c>
@@ -5959,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -6004,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>260</v>
       </c>
@@ -6049,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>263</v>
       </c>
@@ -6094,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>265</v>
       </c>
@@ -6139,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>267</v>
       </c>
@@ -6184,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>270</v>
       </c>
@@ -6229,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>273</v>
       </c>
@@ -6274,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>276</v>
       </c>
@@ -6319,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>278</v>
       </c>
@@ -6364,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>281</v>
       </c>
@@ -6409,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>283</v>
       </c>
@@ -6454,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>283</v>
       </c>
@@ -6499,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>287</v>
       </c>
@@ -6544,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>290</v>
       </c>
@@ -6589,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>293</v>
       </c>
@@ -6634,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>296</v>
       </c>
@@ -6679,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>299</v>
       </c>
@@ -6724,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>300</v>
       </c>
@@ -6769,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>302</v>
       </c>
@@ -6814,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>305</v>
       </c>
@@ -6859,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>308</v>
       </c>
@@ -6904,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>310</v>
       </c>
@@ -6971,14 +6992,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7022,7 +7043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -7067,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -7112,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -7157,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>315</v>
       </c>
@@ -7202,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -7247,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -7292,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -7337,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -7382,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -7427,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -7472,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -7517,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -7562,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -7607,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -7652,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -7697,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -7742,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -7787,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -7832,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -7877,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -7922,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -7967,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -8012,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -8057,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>337</v>
       </c>
@@ -8102,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -8147,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>188</v>
       </c>
@@ -8192,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>193</v>
       </c>
@@ -8237,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -8282,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -8327,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -8372,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>345</v>
       </c>
@@ -8411,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>223</v>
       </c>
@@ -8456,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>226</v>
       </c>
@@ -8501,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>231</v>
       </c>
@@ -8546,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>236</v>
       </c>
@@ -8591,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>242</v>
       </c>
@@ -8636,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>244</v>
       </c>
@@ -8681,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>352</v>
       </c>
@@ -8726,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>247</v>
       </c>
@@ -8771,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>260</v>
       </c>
@@ -8816,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>267</v>
       </c>
@@ -8861,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>273</v>
       </c>
@@ -8906,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>278</v>
       </c>
@@ -8951,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>281</v>
       </c>
@@ -8996,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>283</v>
       </c>
@@ -9041,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>290</v>
       </c>
@@ -9086,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>363</v>
       </c>
@@ -9131,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>296</v>
       </c>
@@ -9176,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>302</v>
       </c>
@@ -9221,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>308</v>
       </c>
@@ -9288,14 +9309,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9339,7 +9360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -9384,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>370</v>
       </c>
@@ -9429,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>373</v>
       </c>
@@ -9474,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -9519,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -9564,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -9609,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -9654,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -9699,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -9744,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -9789,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -9834,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -9879,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -9924,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -9969,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -10014,7 +10035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -10059,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -10104,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>182</v>
       </c>
@@ -10149,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>185</v>
       </c>
@@ -10194,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -10239,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>193</v>
       </c>
@@ -10284,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -10329,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>205</v>
       </c>
@@ -10374,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -10419,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>214</v>
       </c>
@@ -10464,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -10509,7 +10530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>236</v>
       </c>
@@ -10554,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -10599,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>244</v>
       </c>
@@ -10644,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>352</v>
       </c>
@@ -10689,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>246</v>
       </c>
@@ -10734,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>254</v>
       </c>
@@ -10779,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>403</v>
       </c>
@@ -10824,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>260</v>
       </c>
@@ -10869,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>267</v>
       </c>
@@ -10914,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>281</v>
       </c>
@@ -10959,7 +10980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>283</v>
       </c>
@@ -11004,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>290</v>
       </c>
@@ -11049,7 +11070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>296</v>
       </c>
@@ -11094,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>300</v>
       </c>
@@ -11139,7 +11160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>308</v>
       </c>
@@ -11206,15 +11227,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11258,7 +11279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>370</v>
       </c>
@@ -11303,7 +11324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>315</v>
       </c>
@@ -11348,7 +11369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>373</v>
       </c>
@@ -11393,7 +11414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>419</v>
       </c>
@@ -11438,7 +11459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -11483,7 +11504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>424</v>
       </c>
@@ -11528,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>427</v>
       </c>
@@ -11573,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -11618,7 +11639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -11663,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>434</v>
       </c>
@@ -11708,7 +11729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>110</v>
       </c>
@@ -11753,7 +11774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
@@ -11798,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
@@ -11843,7 +11864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>133</v>
       </c>
@@ -11888,7 +11909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>145</v>
       </c>
@@ -11933,7 +11954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>151</v>
       </c>
@@ -11978,7 +11999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>185</v>
       </c>
@@ -12023,7 +12044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>188</v>
       </c>
@@ -12068,7 +12089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>205</v>
       </c>
@@ -12113,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>223</v>
       </c>
@@ -12158,7 +12179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>233</v>
       </c>
@@ -12203,7 +12224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>236</v>
       </c>
@@ -12248,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>247</v>
       </c>
@@ -12293,7 +12314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>260</v>
       </c>
@@ -12338,7 +12359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>281</v>
       </c>
@@ -12383,7 +12404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>283</v>
       </c>
@@ -12449,15 +12470,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12498,7 +12519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>247</v>
       </c>
@@ -12540,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>469</v>
       </c>
@@ -12582,7 +12603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>472</v>
       </c>
@@ -12624,7 +12645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>260</v>
       </c>
@@ -12666,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>205</v>
       </c>
@@ -12708,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>290</v>
       </c>
@@ -12750,7 +12771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>373</v>
       </c>
@@ -12792,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>73</v>
       </c>
@@ -12834,7 +12855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>236</v>
       </c>
@@ -12876,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>122</v>
       </c>
@@ -12918,7 +12939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -12960,7 +12981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>475</v>
       </c>
@@ -13002,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>151</v>
       </c>
@@ -13044,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>477</v>
       </c>
@@ -13086,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>321</v>
       </c>
@@ -13128,7 +13149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -13170,7 +13191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -13228,15 +13249,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13277,7 +13298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
@@ -13319,7 +13340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -13361,7 +13382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>122</v>
       </c>
@@ -13419,17 +13440,17 @@
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13470,7 +13491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -13512,7 +13533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -13554,7 +13575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -13596,7 +13617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -13638,7 +13659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -13680,7 +13701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>484</v>
       </c>
@@ -13722,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>373</v>
       </c>
@@ -13764,7 +13785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -13806,7 +13827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>247</v>
       </c>
@@ -13848,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -13899,13 +13920,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F26B10-E4A7-4B13-B46F-688121A4852C}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13949,7 +13970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>205</v>
       </c>
@@ -13994,7 +14015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -14039,7 +14060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>472</v>
       </c>
@@ -14084,7 +14105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>142</v>
       </c>
@@ -14129,7 +14150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>236</v>
       </c>
@@ -14174,7 +14195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>484</v>
       </c>
@@ -14219,7 +14240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>373</v>
       </c>
@@ -14264,7 +14285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
@@ -14309,7 +14330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>496</v>
       </c>
@@ -14354,7 +14375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>179</v>
       </c>
@@ -14399,7 +14420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>247</v>
       </c>
@@ -14444,7 +14465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>201</v>
       </c>
@@ -14487,6 +14508,340 @@
       </c>
       <c r="N13" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2545E7-E6B1-404A-9269-D0514FF68EE0}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>ERIPRETPaul</v>
+      </c>
+      <c r="D2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F2" s="4">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C7" si="0">A3&amp;B3</f>
+        <v>BOUTILLIERHugo</v>
+      </c>
+      <c r="D3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>LEKANGA MBOMAAmassa Roland Nathanael</v>
+      </c>
+      <c r="D4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>PECOURTBertille</v>
+      </c>
+      <c r="D5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>RAVELOJAONAArthur</v>
+      </c>
+      <c r="D6" t="s">
+        <v>462</v>
+      </c>
+      <c r="E6" t="s">
+        <v>507</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>CHIEN-CHOW-CHINEJules</v>
+      </c>
+      <c r="D7" t="s">
+        <v>494</v>
+      </c>
+      <c r="E7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/resultats_ml.xlsx
+++ b/resultats_ml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudlasalle-my.sharepoint.com/personal/hamilton_araujo_unilasalle_fr/Documents/Bureau/maths_partage/app_maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{8B602A96-83DE-4DC1-BCB0-95BF3B3CC0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF9CCE3-C5F2-CF47-AE4A-6ED91B55917B}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{8B602A96-83DE-4DC1-BCB0-95BF3B3CC0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE65E240-D5C8-3548-8A52-72837DBD62A7}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="8" xr2:uid="{7ABD5B88-4909-4BA9-B4A1-2B2F664063C8}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="9" xr2:uid="{7ABD5B88-4909-4BA9-B4A1-2B2F664063C8}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_ML_2310" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="t6_ML_0212" sheetId="8" r:id="rId7"/>
     <sheet name="t7_ML_0912" sheetId="9" r:id="rId8"/>
     <sheet name="t8_ML_1612" sheetId="10" r:id="rId9"/>
+    <sheet name="t9_ML_2012" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">t1_ML_2310!$A$1:$N$1</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="512">
   <si>
     <t>Nom de famille</t>
   </si>
@@ -1577,6 +1578,15 @@
   </si>
   <si>
     <t>3 min 4 s</t>
+  </si>
+  <si>
+    <t>7 min 28 s</t>
+  </si>
+  <si>
+    <t>10 min 8 s</t>
+  </si>
+  <si>
+    <t>7 min 33 s</t>
   </si>
 </sst>
 </file>
@@ -1619,12 +1629,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6981,6 +6990,200 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA70EEB-83A6-9441-8261-141F0324ADBF}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>PECOURTBertille</v>
+      </c>
+      <c r="D2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">A3&amp;B3</f>
+        <v>CHIEN-CHOW-CHINEJules</v>
+      </c>
+      <c r="D3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>BOUTILLIERHugo</v>
+      </c>
+      <c r="D4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" t="s">
+        <v>511</v>
+      </c>
+      <c r="F4">
+        <v>8.5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2.5</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCF2B50-D536-4E97-98D9-17819F344C2A}">
   <sheetPr>
@@ -14519,8 +14722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2545E7-E6B1-404A-9269-D0514FF68EE0}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14591,7 +14794,7 @@
       <c r="E2" t="s">
         <v>503</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>13</v>
       </c>
       <c r="G2" t="s">
@@ -14636,7 +14839,7 @@
       <c r="E3" t="s">
         <v>504</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>9</v>
       </c>
       <c r="G3" t="s">
@@ -14681,7 +14884,7 @@
       <c r="E4" t="s">
         <v>505</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>8.5</v>
       </c>
       <c r="G4" t="s">
@@ -14726,7 +14929,7 @@
       <c r="E5" t="s">
         <v>506</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" t="s">
@@ -14771,7 +14974,7 @@
       <c r="E6" t="s">
         <v>507</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>7</v>
       </c>
       <c r="G6" t="s">
@@ -14816,7 +15019,7 @@
       <c r="E7" t="s">
         <v>508</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">

--- a/resultats_ml.xlsx
+++ b/resultats_ml.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudlasalle-my.sharepoint.com/personal/hamilton_araujo_unilasalle_fr/Documents/Bureau/maths_partage/app_maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{8B602A96-83DE-4DC1-BCB0-95BF3B3CC0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE65E240-D5C8-3548-8A52-72837DBD62A7}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{8B602A96-83DE-4DC1-BCB0-95BF3B3CC0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E81436-4EA2-487C-B8E4-AEBEB525E916}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" activeTab="9" xr2:uid="{7ABD5B88-4909-4BA9-B4A1-2B2F664063C8}"/>
+    <workbookView xWindow="22932" yWindow="-1548" windowWidth="23256" windowHeight="13896" tabRatio="699" firstSheet="1" activeTab="9" xr2:uid="{7ABD5B88-4909-4BA9-B4A1-2B2F664063C8}"/>
   </bookViews>
   <sheets>
     <sheet name="t1_ML_2310" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="t7_ML_0912" sheetId="9" r:id="rId8"/>
     <sheet name="t8_ML_1612" sheetId="10" r:id="rId9"/>
     <sheet name="t9_ML_2012" sheetId="11" r:id="rId10"/>
+    <sheet name="t10_ML_0601" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">t1_ML_2310!$A$1:$N$1</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="521">
   <si>
     <t>Nom de famille</t>
   </si>
@@ -1587,6 +1588,33 @@
   </si>
   <si>
     <t>7 min 33 s</t>
+  </si>
+  <si>
+    <t>3 min 35 s</t>
+  </si>
+  <si>
+    <t>13 min 59 s</t>
+  </si>
+  <si>
+    <t>4 min 56 s</t>
+  </si>
+  <si>
+    <t>9 min 15 s</t>
+  </si>
+  <si>
+    <t>HEUSSE</t>
+  </si>
+  <si>
+    <t>Victorien</t>
+  </si>
+  <si>
+    <t>victorien.heusse@etu.unilasalle.fr</t>
+  </si>
+  <si>
+    <t>8 min 49 s</t>
+  </si>
+  <si>
+    <t>13 min 15 s</t>
   </si>
 </sst>
 </file>
@@ -1978,14 +2006,14 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +2057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2074,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2119,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2164,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2209,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2254,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2299,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2344,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2389,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2434,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -2479,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2524,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2569,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2614,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2659,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2704,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -2749,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -2794,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -2839,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -2884,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2929,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -2974,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -3019,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -3064,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -3109,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3154,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -3199,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -3244,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -3289,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -3334,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -3379,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -3424,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -3469,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3514,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -3559,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -3604,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -3649,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -3694,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -3739,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -3784,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -3829,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -3874,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -3919,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -3964,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -4009,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -4054,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -4099,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -4144,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -4189,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>154</v>
       </c>
@@ -4234,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -4279,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -4324,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -4369,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -4414,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -4459,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -4504,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -4549,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>174</v>
       </c>
@@ -4594,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>174</v>
       </c>
@@ -4639,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -4684,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -4729,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>185</v>
       </c>
@@ -4774,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>188</v>
       </c>
@@ -4819,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -4864,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -4909,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -4954,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>198</v>
       </c>
@@ -4999,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -5044,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -5089,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>205</v>
       </c>
@@ -5134,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>208</v>
       </c>
@@ -5179,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>211</v>
       </c>
@@ -5224,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -5269,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>217</v>
       </c>
@@ -5314,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>220</v>
       </c>
@@ -5359,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>223</v>
       </c>
@@ -5404,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>226</v>
       </c>
@@ -5449,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>229</v>
       </c>
@@ -5494,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>231</v>
       </c>
@@ -5539,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>233</v>
       </c>
@@ -5584,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>236</v>
       </c>
@@ -5629,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>239</v>
       </c>
@@ -5674,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>242</v>
       </c>
@@ -5719,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>244</v>
       </c>
@@ -5764,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -5809,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -5854,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -5899,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -5944,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>254</v>
       </c>
@@ -5989,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -6034,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>260</v>
       </c>
@@ -6079,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>263</v>
       </c>
@@ -6124,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>265</v>
       </c>
@@ -6169,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>267</v>
       </c>
@@ -6214,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>270</v>
       </c>
@@ -6259,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>273</v>
       </c>
@@ -6304,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>276</v>
       </c>
@@ -6349,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>278</v>
       </c>
@@ -6394,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>281</v>
       </c>
@@ -6439,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>283</v>
       </c>
@@ -6484,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>283</v>
       </c>
@@ -6529,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>287</v>
       </c>
@@ -6574,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>290</v>
       </c>
@@ -6619,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>293</v>
       </c>
@@ -6664,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>296</v>
       </c>
@@ -6709,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>299</v>
       </c>
@@ -6754,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>300</v>
       </c>
@@ -6799,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>302</v>
       </c>
@@ -6844,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>305</v>
       </c>
@@ -6889,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>308</v>
       </c>
@@ -6934,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>310</v>
       </c>
@@ -6995,12 +7023,12 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7044,7 +7072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -7089,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -7134,7 +7162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>373</v>
       </c>
@@ -7177,6 +7205,335 @@
       </c>
       <c r="N4">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0315F46-7335-4375-9E84-E3AFDCCEA4CC}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;B2</f>
+        <v>PECOURTBertille</v>
+      </c>
+      <c r="D2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F2">
+        <v>12.5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2.5</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C7" si="0">A3&amp;B3</f>
+        <v>BOUTILLIERHugo</v>
+      </c>
+      <c r="D3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>LEKANGA MBOMAAmassa Roland Nathanael</v>
+      </c>
+      <c r="D4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E4" t="s">
+        <v>514</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>CHIEN-CHOW-CHINEJules</v>
+      </c>
+      <c r="D5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2.5</v>
+      </c>
+      <c r="J5">
+        <v>2.5</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>HEUSSEVictorien</v>
+      </c>
+      <c r="D6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E6" t="s">
+        <v>519</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>RAVELOJAONAArthur</v>
+      </c>
+      <c r="D7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F7">
+        <v>5.5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2.5</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7195,14 +7552,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7246,7 +7603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -7291,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -7336,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -7381,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>315</v>
       </c>
@@ -7426,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -7471,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -7516,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -7561,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -7606,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -7651,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -7696,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -7741,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -7786,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -7831,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -7876,7 +8233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -7921,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -7966,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -8011,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -8056,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -8101,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -8146,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -8191,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -8236,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -8281,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>337</v>
       </c>
@@ -8326,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -8371,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>188</v>
       </c>
@@ -8416,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>193</v>
       </c>
@@ -8461,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -8506,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -8551,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -8596,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>345</v>
       </c>
@@ -8635,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>223</v>
       </c>
@@ -8680,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>226</v>
       </c>
@@ -8725,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>231</v>
       </c>
@@ -8770,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>236</v>
       </c>
@@ -8815,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>242</v>
       </c>
@@ -8860,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>244</v>
       </c>
@@ -8905,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>352</v>
       </c>
@@ -8950,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>247</v>
       </c>
@@ -8995,7 +9352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>260</v>
       </c>
@@ -9040,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>267</v>
       </c>
@@ -9085,7 +9442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>273</v>
       </c>
@@ -9130,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>278</v>
       </c>
@@ -9175,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>281</v>
       </c>
@@ -9220,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>283</v>
       </c>
@@ -9265,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>290</v>
       </c>
@@ -9310,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>363</v>
       </c>
@@ -9355,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>296</v>
       </c>
@@ -9400,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>302</v>
       </c>
@@ -9445,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>308</v>
       </c>
@@ -9512,14 +9869,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9563,7 +9920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -9608,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>370</v>
       </c>
@@ -9653,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>373</v>
       </c>
@@ -9698,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -9743,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -9788,7 +10145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -9833,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -9878,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -9923,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -9968,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -10013,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -10058,7 +10415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -10103,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -10148,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -10193,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -10238,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -10283,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -10328,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>182</v>
       </c>
@@ -10373,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>185</v>
       </c>
@@ -10418,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -10463,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>193</v>
       </c>
@@ -10508,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -10553,7 +10910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>205</v>
       </c>
@@ -10598,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -10643,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>214</v>
       </c>
@@ -10688,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -10733,7 +11090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>236</v>
       </c>
@@ -10778,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -10823,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>244</v>
       </c>
@@ -10868,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>352</v>
       </c>
@@ -10913,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>246</v>
       </c>
@@ -10958,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>254</v>
       </c>
@@ -11003,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>403</v>
       </c>
@@ -11048,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>260</v>
       </c>
@@ -11093,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>267</v>
       </c>
@@ -11138,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>281</v>
       </c>
@@ -11183,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>283</v>
       </c>
@@ -11228,7 +11585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>290</v>
       </c>
@@ -11273,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>296</v>
       </c>
@@ -11318,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>300</v>
       </c>
@@ -11363,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>308</v>
       </c>
@@ -11430,15 +11787,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11482,7 +11839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>370</v>
       </c>
@@ -11527,7 +11884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>315</v>
       </c>
@@ -11572,7 +11929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>373</v>
       </c>
@@ -11617,7 +11974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>419</v>
       </c>
@@ -11662,7 +12019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -11707,7 +12064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>424</v>
       </c>
@@ -11752,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>427</v>
       </c>
@@ -11797,7 +12154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -11842,7 +12199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -11887,7 +12244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>434</v>
       </c>
@@ -11932,7 +12289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>110</v>
       </c>
@@ -11977,7 +12334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
@@ -12022,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
@@ -12067,7 +12424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>133</v>
       </c>
@@ -12112,7 +12469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>145</v>
       </c>
@@ -12157,7 +12514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>151</v>
       </c>
@@ -12202,7 +12559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>185</v>
       </c>
@@ -12247,7 +12604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>188</v>
       </c>
@@ -12292,7 +12649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>205</v>
       </c>
@@ -12337,7 +12694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>223</v>
       </c>
@@ -12382,7 +12739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>233</v>
       </c>
@@ -12427,7 +12784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>236</v>
       </c>
@@ -12472,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>247</v>
       </c>
@@ -12517,7 +12874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>260</v>
       </c>
@@ -12562,7 +12919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>281</v>
       </c>
@@ -12607,7 +12964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>283</v>
       </c>
@@ -12673,15 +13030,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12722,7 +13079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>247</v>
       </c>
@@ -12764,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>469</v>
       </c>
@@ -12806,7 +13163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>472</v>
       </c>
@@ -12848,7 +13205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>260</v>
       </c>
@@ -12890,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>205</v>
       </c>
@@ -12932,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>290</v>
       </c>
@@ -12974,7 +13331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>373</v>
       </c>
@@ -13016,7 +13373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>73</v>
       </c>
@@ -13058,7 +13415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>236</v>
       </c>
@@ -13100,7 +13457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>122</v>
       </c>
@@ -13142,7 +13499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -13184,7 +13541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>475</v>
       </c>
@@ -13226,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>151</v>
       </c>
@@ -13268,7 +13625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>477</v>
       </c>
@@ -13310,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>321</v>
       </c>
@@ -13352,7 +13709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -13394,7 +13751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -13452,15 +13809,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13501,7 +13858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
@@ -13543,7 +13900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -13585,7 +13942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>122</v>
       </c>
@@ -13643,17 +14000,17 @@
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13694,7 +14051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -13736,7 +14093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -13778,7 +14135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -13820,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -13862,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -13904,7 +14261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>484</v>
       </c>
@@ -13946,7 +14303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>373</v>
       </c>
@@ -13988,7 +14345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -14030,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>247</v>
       </c>
@@ -14072,7 +14429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -14127,9 +14484,9 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14173,7 +14530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>205</v>
       </c>
@@ -14218,7 +14575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -14263,7 +14620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>472</v>
       </c>
@@ -14308,7 +14665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>142</v>
       </c>
@@ -14353,7 +14710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>236</v>
       </c>
@@ -14398,7 +14755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>484</v>
       </c>
@@ -14443,7 +14800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>373</v>
       </c>
@@ -14488,7 +14845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
@@ -14533,7 +14890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>496</v>
       </c>
@@ -14578,7 +14935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>179</v>
       </c>
@@ -14623,7 +14980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>247</v>
       </c>
@@ -14668,7 +15025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>201</v>
       </c>
@@ -14726,14 +15083,14 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14777,7 +15134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -14822,7 +15179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>373</v>
       </c>
@@ -14867,7 +15224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -14912,7 +15269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>236</v>
       </c>
@@ -14957,7 +15314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>247</v>
       </c>
@@ -15002,7 +15359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
